--- a/data/trans_dic/P14B24_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B24_2016_2023-Habitat-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.05245180851807833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04733061466247622</v>
+        <v>0.04733061466247621</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0322186463792529</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005869209280143782</v>
+        <v>0.005805957143653285</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02801579002651784</v>
+        <v>0.02897511201305815</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03678975874198563</v>
+        <v>0.03762811167227408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03691668829718101</v>
+        <v>0.03569207044771244</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02370218223357224</v>
+        <v>0.02425023322774218</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03454613398866674</v>
+        <v>0.03501906309169282</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02412287522341143</v>
+        <v>0.02291243746095736</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06021775800000114</v>
+        <v>0.06038746761056065</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07360522933773495</v>
+        <v>0.07585745523952167</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06177230880777482</v>
+        <v>0.05956823526513548</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0434596356745901</v>
+        <v>0.04300809210778287</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05543223256291589</v>
+        <v>0.05495260060435023</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004934916902779023</v>
+        <v>0.004900848128192339</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009695191985065974</v>
+        <v>0.01030841511435211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02648040926050158</v>
+        <v>0.02769727310878262</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03989722966521506</v>
+        <v>0.04038031476719538</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0178607839425299</v>
+        <v>0.01785305843242908</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02727143643133581</v>
+        <v>0.02748050061606976</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01769611384411181</v>
+        <v>0.01720402562914525</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02544110786578568</v>
+        <v>0.0262248187499919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05105904165152825</v>
+        <v>0.05295094617004528</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06240651624775473</v>
+        <v>0.06472523757041518</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03165936620509945</v>
+        <v>0.03184723142053941</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04172464022687671</v>
+        <v>0.04123203954177628</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.04753485226209241</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07793620848442176</v>
+        <v>0.07793620848442177</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03014006577082764</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.05123484844812073</v>
+        <v>0.05123484844812072</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005846140428676807</v>
+        <v>0.005555363779402554</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01460835967737089</v>
+        <v>0.0148038386200832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03401109038728648</v>
+        <v>0.03334084028883308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0621199588225882</v>
+        <v>0.06386228148087147</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02269386733877473</v>
+        <v>0.02252742025178234</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04198549630650374</v>
+        <v>0.04173599122826988</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02196186301895332</v>
+        <v>0.02287584365745301</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0424395742430966</v>
+        <v>0.04199764507012056</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06556913399499018</v>
+        <v>0.06268384178019255</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0959233857021162</v>
+        <v>0.09852043463784883</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04119001053728928</v>
+        <v>0.04019483544872558</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06229335191431239</v>
+        <v>0.0634119652876235</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.01032677239978765</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03227974659206046</v>
+        <v>0.03227974659206045</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.03309651741235383</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005079097089476779</v>
+        <v>0.005195181756279417</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02219999725606835</v>
+        <v>0.02238419422514229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02223211184505891</v>
+        <v>0.02303848037659932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05621220625377328</v>
+        <v>0.05638032226190042</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01644871757749609</v>
+        <v>0.01565380596748263</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04304609291647471</v>
+        <v>0.04333802552286031</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01930217128246157</v>
+        <v>0.01816538369810023</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04558348664310431</v>
+        <v>0.04617672688710304</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04692243264648283</v>
+        <v>0.0472202945721291</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08381132328672999</v>
+        <v>0.08423382561093637</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03013679674621228</v>
+        <v>0.02962692746251087</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06115970912251034</v>
+        <v>0.06166124413077976</v>
       </c>
     </row>
     <row r="16">
@@ -940,13 +940,13 @@
         <v>0.01093851061833929</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02750463105231373</v>
+        <v>0.02750463105231374</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.0413895551865695</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06159888300802914</v>
+        <v>0.06159888300802915</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02649560900372193</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007952965379697339</v>
+        <v>0.007714488658332254</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02173864881661075</v>
+        <v>0.02248195955556345</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03449938085700111</v>
+        <v>0.03528950579813325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05443581681347748</v>
+        <v>0.05507327230463876</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02284612833615389</v>
+        <v>0.02237838292935024</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04110240475625365</v>
+        <v>0.0404003055875718</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01496627704010875</v>
+        <v>0.01473740200981383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03394857835998617</v>
+        <v>0.03406583205990691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04912126268559613</v>
+        <v>0.04846791593200658</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06853150666453788</v>
+        <v>0.06837921980193296</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03056191710510126</v>
+        <v>0.03057112891578916</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04994751432828702</v>
+        <v>0.04937048627134535</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3961</v>
+        <v>3918</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19351</v>
+        <v>20013</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24754</v>
+        <v>25318</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>27050</v>
+        <v>26152</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>31942</v>
+        <v>32681</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>49174</v>
+        <v>49847</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16278</v>
+        <v>15461</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41593</v>
+        <v>41710</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49524</v>
+        <v>51040</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45262</v>
+        <v>43647</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>58568</v>
+        <v>57959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>78904</v>
+        <v>78221</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5046</v>
+        <v>5011</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10169</v>
+        <v>10813</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27617</v>
+        <v>28886</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>42639</v>
+        <v>43156</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>36889</v>
+        <v>36873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>57751</v>
+        <v>58194</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18093</v>
+        <v>17590</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26686</v>
+        <v>27508</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53250</v>
+        <v>55223</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>66696</v>
+        <v>69174</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>65387</v>
+        <v>65775</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>88358</v>
+        <v>87315</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4440</v>
+        <v>4220</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11657</v>
+        <v>11813</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26699</v>
+        <v>26173</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50415</v>
+        <v>51829</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>35052</v>
+        <v>34795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>67578</v>
+        <v>67176</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16681</v>
+        <v>17375</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>33866</v>
+        <v>33514</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>51472</v>
+        <v>49208</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>77849</v>
+        <v>79956</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>63621</v>
+        <v>62083</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>100265</v>
+        <v>102065</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4757</v>
+        <v>4866</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21979</v>
+        <v>22162</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23205</v>
+        <v>24047</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>62784</v>
+        <v>62972</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32576</v>
+        <v>31002</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>90697</v>
+        <v>91312</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18080</v>
+        <v>17015</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45130</v>
+        <v>45718</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48977</v>
+        <v>49288</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>93610</v>
+        <v>94082</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>59684</v>
+        <v>58675</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>128862</v>
+        <v>129918</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>26988</v>
+        <v>26179</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>76687</v>
+        <v>79309</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>122285</v>
+        <v>125085</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>203042</v>
+        <v>205419</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>158506</v>
+        <v>155261</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>298305</v>
+        <v>293209</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>50787</v>
+        <v>50011</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>119760</v>
+        <v>120173</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>174112</v>
+        <v>171797</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>255618</v>
+        <v>255050</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>212038</v>
+        <v>212102</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>362499</v>
+        <v>358311</v>
       </c>
     </row>
     <row r="24">
